--- a/docs/StructureDefinition-Prevision.xlsx
+++ b/docs/StructureDefinition-Prevision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T18:02:15-03:00</t>
+    <t>2025-09-30T00:48:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}tramo-fonasa:Si tipo(type) es (01)Fonasa, se debe definir el tramo(class). If type.coding.code = 01 class SHALL be present {type.code = '01' and class.exists() and (class.value = 'A' or class.value = 'B' or class.value = 'C' or class.value = 'D')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}tramo-fonasa:Si tipo(type) es (01)Fonasa, se debe definir el tramo(class). If type.coding.code = 01 class SHALL be present {(type.code = '01' and class.exists() and (class.value = 'A' or class.value = 'B' or class.value = 'C' or class.value = 'D'))}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1136,10 +1136,7 @@
     <t>Coverage.class.value</t>
   </si>
   <si>
-    <t>Tramo FONASA</t>
-  </si>
-  <si>
-    <t>Tramo FONASA(A,B,C,D)</t>
+    <t>Tramo FONASA o Nombre Isapre</t>
   </si>
   <si>
     <t>For example, the Group or Plan number.</t>
@@ -1160,10 +1157,10 @@
     <t>Coverage.class.name</t>
   </si>
   <si>
-    <t>Descripción: Fonasa Tramo A</t>
-  </si>
-  <si>
-    <t>Descripción completa del valor, Ej: Fonasa Tramo A</t>
+    <t>Descripción: Fonasa Tramo A o Isapre Los Palermos</t>
+  </si>
+  <si>
+    <t>Descripción completa del valor, Ej: Fonasa Tramo A, Isapre Los Palermos</t>
   </si>
   <si>
     <t>Used to provide a meaningful description in correspondence to the patient.</t>
@@ -2699,7 +2696,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2817,7 +2814,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>87</v>
@@ -7054,13 +7051,13 @@
         <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -7133,21 +7130,21 @@
         <v>19</v>
       </c>
       <c r="AN45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AO45" t="s" s="2">
+      <c r="AP45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7173,14 +7170,14 @@
         <v>184</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7229,7 +7226,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7253,21 +7250,21 @@
         <v>19</v>
       </c>
       <c r="AN46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AO46" t="s" s="2">
+      <c r="AP46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7290,17 +7287,17 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7349,7 +7346,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7384,10 +7381,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7413,14 +7410,14 @@
         <v>184</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7469,7 +7466,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7493,7 +7490,7 @@
         <v>19</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>19</v>
@@ -7504,14 +7501,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7533,16 +7530,16 @@
         <v>339</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7591,7 +7588,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7626,10 +7623,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7744,10 +7741,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7864,10 +7861,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7986,10 +7983,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8015,16 +8012,16 @@
         <v>176</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8052,11 +8049,11 @@
         <v>289</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
       </c>
@@ -8073,7 +8070,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8108,10 +8105,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8134,19 +8131,19 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -8195,7 +8192,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>87</v>
@@ -8219,21 +8216,21 @@
         <v>19</v>
       </c>
       <c r="AN54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AO54" t="s" s="2">
+      <c r="AP54" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8259,14 +8256,14 @@
         <v>339</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8315,7 +8312,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8350,10 +8347,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8468,10 +8465,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8588,10 +8585,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8710,10 +8707,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8739,14 +8736,14 @@
         <v>176</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8771,14 +8768,14 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>19</v>
       </c>
@@ -8795,7 +8792,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
@@ -8830,10 +8827,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8859,14 +8856,14 @@
         <v>294</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8915,7 +8912,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8950,10 +8947,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8979,16 +8976,16 @@
         <v>235</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -9037,7 +9034,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9072,10 +9069,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9098,17 +9095,17 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>19</v>
@@ -9157,7 +9154,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9184,7 +9181,7 @@
         <v>258</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>260</v>

--- a/docs/StructureDefinition-Prevision.xlsx
+++ b/docs/StructureDefinition-Prevision.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T00:48:00-03:00</t>
+    <t>2025-10-01T13:03:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Prevision.xlsx
+++ b/docs/StructureDefinition-Prevision.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T13:03:17-03:00</t>
+    <t>2025-10-07T23:46:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
